--- a/SL_Intelligent_Room/Output/SLDLL_relay/frequencies.xlsx
+++ b/SL_Intelligent_Room/Output/SLDLL_relay/frequencies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\info\repo\dzkbx0_thesis_repo\SL_Intelligent_Room\Output\SLDLL_relay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1409A26-23E7-4FA0-B31D-03C683D013D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B5DA1F-9DF9-43C0-BA3E-EB109FB178DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1065" yWindow="-120" windowWidth="27855" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -697,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A106A306-3212-45AE-B471-21B6B5618BDF}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SL_Intelligent_Room/Output/SLDLL_relay/frequencies.xlsx
+++ b/SL_Intelligent_Room/Output/SLDLL_relay/frequencies.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\info\repo\dzkbx0_thesis_repo\SL_Intelligent_Room\Output\SLDLL_relay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B5DA1F-9DF9-43C0-BA3E-EB109FB178DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E790CEB-DAAE-4CB3-B97A-306F08C9AAE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1065" yWindow="-120" windowWidth="27855" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1290" yWindow="-110" windowWidth="18020" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="freqs1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">freqs1!$A$1:$B$51</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">freqs1!$A$1:$B$18</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -360,15 +360,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -376,12 +382,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -422,8 +458,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{62D77243-98D9-4A9F-BF52-B9848EAA157A}" name="freqs1" displayName="freqs1" ref="A1:B51" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B51" xr:uid="{62D77243-98D9-4A9F-BF52-B9848EAA157A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{62D77243-98D9-4A9F-BF52-B9848EAA157A}" name="freqs1" displayName="freqs1" ref="A1:B18" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B18" xr:uid="{62D77243-98D9-4A9F-BF52-B9848EAA157A}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{699C2A09-7585-4F38-A70D-691411DDD94C}" uniqueName="1" name="Hangmagasság" queryTableFieldId="1" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{ADD2F630-FD56-480D-A14B-89EDD1C1FD79}" uniqueName="2" name="Frekvencia (Hz)" queryTableFieldId="2" dataDxfId="0"/>
@@ -695,19 +731,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A106A306-3212-45AE-B471-21B6B5618BDF}">
-  <dimension ref="A1:B51"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G2" sqref="G2:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>100</v>
       </c>
@@ -715,410 +754,345 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>26</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>30</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="D18" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B35" t="s">
+      <c r="E18" s="4" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>67</v>
-      </c>
-      <c r="B36" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B37" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>69</v>
-      </c>
-      <c r="B38" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>71</v>
-      </c>
-      <c r="B39" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>72</v>
-      </c>
-      <c r="B40" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>74</v>
-      </c>
-      <c r="B41" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>76</v>
-      </c>
-      <c r="B42" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>78</v>
-      </c>
-      <c r="B43" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>79</v>
-      </c>
-      <c r="B44" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>81</v>
-      </c>
-      <c r="B45" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>83</v>
-      </c>
-      <c r="B46" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>85</v>
-      </c>
-      <c r="B47" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>87</v>
-      </c>
-      <c r="B48" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>89</v>
-      </c>
-      <c r="B49" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>91</v>
-      </c>
-      <c r="B50" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>93</v>
-      </c>
-      <c r="B51" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
